--- a/test_files/test.xlsx
+++ b/test_files/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Dropbox/Programming/SA_scorer_web/test_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15740" yWindow="7180" windowWidth="25600" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="1820" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>subject</t>
   </si>
@@ -33,16 +38,16 @@
     <t>post_weight</t>
   </si>
   <si>
-    <t>vex</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
     <t>6min_arm</t>
   </si>
   <si>
     <t>12min_arm</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
   </si>
 </sst>
 </file>
@@ -262,6 +267,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -587,13 +597,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD39"/>
+  <dimension ref="A1:CD33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="6"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
@@ -604,7 +614,7 @@
     <col min="82" max="82" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="16" thickBot="1">
+    <row r="1" spans="1:82" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -618,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5">
         <v>1</v>
@@ -852,24 +862,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
-        <v>419</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>495</v>
-      </c>
-      <c r="D2" s="7">
-        <v>465</v>
+        <v>460</v>
+      </c>
+      <c r="D2" s="1">
+        <v>415</v>
       </c>
       <c r="E2" s="12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" s="12">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1016,24 +1026,24 @@
       <c r="CA2"/>
       <c r="CB2"/>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>495</v>
-      </c>
-      <c r="D3" s="7">
-        <v>465</v>
+        <v>508</v>
+      </c>
+      <c r="D3" s="1">
+        <v>494</v>
       </c>
       <c r="E3" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="12">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1180,24 +1190,24 @@
       <c r="CA3"/>
       <c r="CB3"/>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>495</v>
-      </c>
-      <c r="D4" s="7">
-        <v>465</v>
+        <v>516</v>
+      </c>
+      <c r="D4" s="1">
+        <v>482</v>
       </c>
       <c r="E4" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1320,49 +1330,109 @@
       <c r="CA4"/>
       <c r="CB4"/>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
-        <v>422</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>495</v>
-      </c>
-      <c r="D5" s="7">
-        <v>465</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
+        <v>459</v>
+      </c>
+      <c r="D5" s="1">
+        <v>441</v>
+      </c>
+      <c r="E5" s="12">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>3</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
@@ -1410,40 +1480,82 @@
       <c r="CA5"/>
       <c r="CB5"/>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
-        <v>423</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>495</v>
-      </c>
-      <c r="D6" s="7">
-        <v>465</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
+        <v>493</v>
+      </c>
+      <c r="D6" s="1">
+        <v>477</v>
+      </c>
+      <c r="E6" s="12">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6"/>
@@ -1500,110 +1612,112 @@
       <c r="CA6"/>
       <c r="CB6"/>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
-        <v>424</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>495</v>
-      </c>
-      <c r="D7" s="7">
-        <v>465</v>
+        <v>450</v>
+      </c>
+      <c r="D7" s="1">
+        <v>402</v>
       </c>
       <c r="E7" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" s="12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH7">
-        <v>4</v>
-      </c>
-      <c r="AI7"/>
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
@@ -1650,124 +1764,208 @@
       <c r="CA7"/>
       <c r="CB7"/>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
-        <v>425</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>495</v>
-      </c>
-      <c r="D8" s="7">
-        <v>465</v>
+        <v>436</v>
+      </c>
+      <c r="D8" s="1">
+        <v>417</v>
       </c>
       <c r="E8" s="12">
         <v>10</v>
       </c>
       <c r="F8" s="12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>4</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>4</v>
       </c>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8"/>
-      <c r="BD8"/>
-      <c r="BE8"/>
-      <c r="BF8"/>
-      <c r="BG8"/>
-      <c r="BH8"/>
-      <c r="BI8"/>
-      <c r="BJ8"/>
-      <c r="BK8"/>
-      <c r="BL8"/>
-      <c r="BM8"/>
-      <c r="BN8"/>
-      <c r="BO8"/>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>3</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>4</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>3</v>
+      </c>
+      <c r="AO8">
+        <v>4</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>2</v>
+      </c>
+      <c r="AS8">
+        <v>4</v>
+      </c>
+      <c r="AT8">
+        <v>2</v>
+      </c>
+      <c r="AU8">
+        <v>3</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8">
+        <v>4</v>
+      </c>
+      <c r="AY8">
+        <v>2</v>
+      </c>
+      <c r="AZ8">
+        <v>4</v>
+      </c>
+      <c r="BA8">
+        <v>3</v>
+      </c>
+      <c r="BB8">
+        <v>4</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>3</v>
+      </c>
+      <c r="BE8">
+        <v>4</v>
+      </c>
+      <c r="BF8">
+        <v>3</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>3</v>
+      </c>
+      <c r="BI8">
+        <v>4</v>
+      </c>
+      <c r="BJ8">
+        <v>2</v>
+      </c>
+      <c r="BK8">
+        <v>3</v>
+      </c>
+      <c r="BL8">
+        <v>2</v>
+      </c>
+      <c r="BM8">
+        <v>4</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>3</v>
+      </c>
       <c r="BP8"/>
       <c r="BQ8"/>
       <c r="BR8"/>
@@ -1782,59 +1980,139 @@
       <c r="CA8"/>
       <c r="CB8"/>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
-        <v>426</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>495</v>
-      </c>
-      <c r="D9" s="7">
-        <v>465</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-      <c r="AN9"/>
-      <c r="AO9"/>
-      <c r="AP9"/>
-      <c r="AQ9"/>
-      <c r="AR9"/>
+        <v>456</v>
+      </c>
+      <c r="D9" s="1">
+        <v>417</v>
+      </c>
+      <c r="E9" s="12">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
+      </c>
+      <c r="AJ9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>4</v>
+      </c>
+      <c r="AN9">
+        <v>3</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>4</v>
+      </c>
+      <c r="AQ9">
+        <v>2</v>
+      </c>
+      <c r="AR9">
+        <v>4</v>
+      </c>
       <c r="AS9"/>
       <c r="AT9"/>
       <c r="AU9"/>
@@ -1872,112 +2150,50 @@
       <c r="CA9"/>
       <c r="CB9"/>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
-        <v>427</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>495</v>
-      </c>
-      <c r="D10" s="7">
-        <v>465</v>
-      </c>
-      <c r="E10" s="12">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>4</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10">
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>4</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>3</v>
-      </c>
-      <c r="AD10">
-        <v>4</v>
-      </c>
-      <c r="AE10">
-        <v>2</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>3</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>2</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="D10" s="1">
+        <v>464</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
@@ -2024,50 +2240,112 @@
       <c r="CA10"/>
       <c r="CB10"/>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>428</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>495</v>
-      </c>
-      <c r="D11" s="7">
-        <v>465</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
+        <v>446</v>
+      </c>
+      <c r="D11" s="1">
+        <v>413</v>
+      </c>
+      <c r="E11" s="12">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>4</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
@@ -2114,18 +2392,18 @@
       <c r="CA11"/>
       <c r="CB11"/>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1">
-        <v>495</v>
-      </c>
-      <c r="D12" s="7">
-        <v>465</v>
+        <v>441</v>
+      </c>
+      <c r="D12" s="1">
+        <v>408</v>
       </c>
       <c r="E12" s="12">
         <v>10</v>
@@ -2134,37 +2412,37 @@
         <v>15</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>3</v>
@@ -2173,149 +2451,129 @@
         <v>1</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12">
         <v>4</v>
       </c>
       <c r="AC12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>2</v>
       </c>
       <c r="AE12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH12">
         <v>3</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV12">
         <v>1</v>
       </c>
       <c r="AW12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB12">
         <v>4</v>
       </c>
       <c r="BC12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD12">
         <v>3</v>
       </c>
       <c r="BE12">
-        <v>4</v>
-      </c>
-      <c r="BF12">
-        <v>3</v>
-      </c>
-      <c r="BG12">
-        <v>2</v>
-      </c>
-      <c r="BH12">
-        <v>3</v>
-      </c>
-      <c r="BI12">
-        <v>4</v>
-      </c>
-      <c r="BJ12">
-        <v>2</v>
-      </c>
-      <c r="BK12">
-        <v>3</v>
-      </c>
-      <c r="BL12">
-        <v>2</v>
-      </c>
-      <c r="BM12">
-        <v>4</v>
-      </c>
-      <c r="BN12">
-        <v>1</v>
-      </c>
-      <c r="BO12">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
       <c r="BP12"/>
       <c r="BQ12"/>
       <c r="BR12"/>
@@ -2330,139 +2588,59 @@
       <c r="CA12"/>
       <c r="CB12"/>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>495</v>
-      </c>
-      <c r="D13" s="7">
-        <v>465</v>
-      </c>
-      <c r="E13" s="12">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>4</v>
-      </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>4</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>3</v>
-      </c>
-      <c r="Z13">
-        <v>2</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>4</v>
-      </c>
-      <c r="AC13">
-        <v>3</v>
-      </c>
-      <c r="AD13">
-        <v>2</v>
-      </c>
-      <c r="AE13">
-        <v>4</v>
-      </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
-      <c r="AG13">
-        <v>2</v>
-      </c>
-      <c r="AH13">
-        <v>1</v>
-      </c>
-      <c r="AI13">
-        <v>4</v>
-      </c>
-      <c r="AJ13">
-        <v>3</v>
-      </c>
-      <c r="AK13">
-        <v>1</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13">
-        <v>4</v>
-      </c>
-      <c r="AN13">
-        <v>3</v>
-      </c>
-      <c r="AO13">
-        <v>1</v>
-      </c>
-      <c r="AP13">
-        <v>4</v>
-      </c>
-      <c r="AQ13">
-        <v>2</v>
-      </c>
-      <c r="AR13">
-        <v>4</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="D13" s="1">
+        <v>487</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
       <c r="AS13"/>
       <c r="AT13"/>
       <c r="AU13"/>
@@ -2500,18 +2678,18 @@
       <c r="CA13"/>
       <c r="CB13"/>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
-        <v>431</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>495</v>
-      </c>
-      <c r="D14" s="7">
-        <v>465</v>
+        <v>490</v>
+      </c>
+      <c r="D14" s="1">
+        <v>484</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -2590,112 +2768,50 @@
       <c r="CA14"/>
       <c r="CB14"/>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>495</v>
-      </c>
-      <c r="D15" s="7">
-        <v>465</v>
-      </c>
-      <c r="E15" s="12">
-        <v>10</v>
-      </c>
-      <c r="F15" s="12">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>4</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>4</v>
-      </c>
-      <c r="X15">
-        <v>3</v>
-      </c>
-      <c r="Y15">
-        <v>4</v>
-      </c>
-      <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>4</v>
-      </c>
-      <c r="AC15">
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <v>3</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15">
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <v>4</v>
-      </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="D15" s="1">
+        <v>458</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -2742,72 +2858,72 @@
       <c r="CA15"/>
       <c r="CB15"/>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
-        <v>433</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>495</v>
-      </c>
-      <c r="D16" s="7">
-        <v>465</v>
+        <v>458</v>
+      </c>
+      <c r="D16" s="1">
+        <v>441</v>
       </c>
       <c r="E16" s="12">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F16" s="12">
         <v>15</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>4</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>3</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W16">
         <v>4</v>
@@ -2819,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -2837,83 +2953,55 @@
         <v>3</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK16">
         <v>3</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ16">
-        <v>4</v>
-      </c>
-      <c r="AR16">
-        <v>4</v>
-      </c>
-      <c r="AS16">
-        <v>1</v>
-      </c>
-      <c r="AT16">
-        <v>3</v>
-      </c>
-      <c r="AU16">
-        <v>4</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-      <c r="AW16">
-        <v>2</v>
-      </c>
-      <c r="AX16">
-        <v>3</v>
-      </c>
-      <c r="AY16">
-        <v>4</v>
-      </c>
-      <c r="AZ16">
-        <v>1</v>
-      </c>
-      <c r="BA16">
-        <v>4</v>
-      </c>
-      <c r="BB16">
-        <v>4</v>
-      </c>
-      <c r="BC16">
-        <v>2</v>
-      </c>
-      <c r="BD16">
-        <v>3</v>
-      </c>
-      <c r="BE16">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
       <c r="BF16"/>
       <c r="BG16"/>
       <c r="BH16"/>
@@ -2938,45 +3026,97 @@
       <c r="CA16"/>
       <c r="CB16"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
-        <v>434</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>495</v>
-      </c>
-      <c r="D17" s="7">
-        <v>465</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
+        <v>488</v>
+      </c>
+      <c r="D17" s="1">
+        <v>453</v>
+      </c>
+      <c r="E17" s="12">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>4</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
@@ -3028,63 +3168,151 @@
       <c r="CA17"/>
       <c r="CB17"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
-        <v>435</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>495</v>
-      </c>
-      <c r="D18" s="7">
-        <v>465</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-      <c r="AN18"/>
-      <c r="AO18"/>
-      <c r="AP18"/>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
+        <v>456</v>
+      </c>
+      <c r="D18" s="1">
+        <v>454</v>
+      </c>
+      <c r="E18" s="12">
+        <v>10</v>
+      </c>
+      <c r="F18" s="12">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>3</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>4</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <v>4</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>4</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>3</v>
+      </c>
+      <c r="AP18">
+        <v>4</v>
+      </c>
+      <c r="AQ18">
+        <v>4</v>
+      </c>
+      <c r="AR18">
+        <v>2</v>
+      </c>
+      <c r="AS18">
+        <v>4</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
       <c r="AW18"/>
       <c r="AX18"/>
       <c r="AY18"/>
@@ -3118,69 +3346,169 @@
       <c r="CA18"/>
       <c r="CB18"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
-        <v>436</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>495</v>
-      </c>
-      <c r="D19" s="7">
-        <v>465</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
+        <v>482</v>
+      </c>
+      <c r="D19" s="1">
+        <v>447</v>
+      </c>
+      <c r="E19" s="12">
+        <v>11</v>
+      </c>
+      <c r="F19" s="12">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+      <c r="X19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>2</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>2</v>
+      </c>
+      <c r="AI19">
+        <v>3</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
+        <v>3</v>
+      </c>
+      <c r="AM19">
+        <v>2</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>3</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <v>4</v>
+      </c>
+      <c r="AU19">
+        <v>2</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>2</v>
+      </c>
       <c r="BC19"/>
       <c r="BD19"/>
       <c r="BE19"/>
@@ -3208,45 +3536,45 @@
       <c r="CA19"/>
       <c r="CB19"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
-        <v>401</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>495</v>
-      </c>
-      <c r="D20" s="7">
-        <v>465</v>
+        <v>448</v>
+      </c>
+      <c r="D20" s="1">
+        <v>424</v>
       </c>
       <c r="E20" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20" s="12">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -3258,86 +3586,82 @@
         <v>4</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20">
         <v>2</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>4</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA20">
         <v>4</v>
       </c>
       <c r="AB20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK20">
         <v>3</v>
       </c>
       <c r="AL20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO20">
-        <v>4</v>
-      </c>
-      <c r="AP20">
-        <v>3</v>
-      </c>
-      <c r="AQ20">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AP20"/>
+      <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20"/>
@@ -3376,51 +3700,51 @@
       <c r="CA20"/>
       <c r="CB20"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>495</v>
-      </c>
-      <c r="D21" s="7">
-        <v>465</v>
+        <v>433</v>
+      </c>
+      <c r="D21" s="1">
+        <v>419</v>
       </c>
       <c r="E21" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>3</v>
@@ -3429,45 +3753,47 @@
         <v>2</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21">
         <v>1</v>
       </c>
-      <c r="AE21"/>
+      <c r="AE21">
+        <v>3</v>
+      </c>
       <c r="AF21"/>
       <c r="AG21"/>
       <c r="AH21"/>
@@ -3518,151 +3844,143 @@
       <c r="CA21"/>
       <c r="CB21"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
-        <v>403</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>495</v>
-      </c>
-      <c r="D22" s="7">
-        <v>465</v>
+        <v>493</v>
+      </c>
+      <c r="D22" s="1">
+        <v>468</v>
       </c>
       <c r="E22" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>3</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB22">
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF22">
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM22">
         <v>4</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR22">
-        <v>2</v>
-      </c>
-      <c r="AS22">
-        <v>4</v>
-      </c>
-      <c r="AT22">
-        <v>1</v>
-      </c>
-      <c r="AU22">
-        <v>4</v>
-      </c>
-      <c r="AV22">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
       <c r="AW22"/>
       <c r="AX22"/>
       <c r="AY22"/>
@@ -3696,69 +4014,169 @@
       <c r="CA22"/>
       <c r="CB22"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
-        <v>404</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1">
-        <v>495</v>
-      </c>
-      <c r="D23" s="7">
-        <v>465</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
-      <c r="AK23"/>
-      <c r="AL23"/>
-      <c r="AM23"/>
-      <c r="AN23"/>
-      <c r="AO23"/>
-      <c r="AP23"/>
-      <c r="AQ23"/>
-      <c r="AR23"/>
-      <c r="AS23"/>
-      <c r="AT23"/>
-      <c r="AU23"/>
-      <c r="AV23"/>
-      <c r="AW23"/>
-      <c r="AX23"/>
-      <c r="AY23"/>
-      <c r="AZ23"/>
-      <c r="BA23"/>
-      <c r="BB23"/>
+        <v>498</v>
+      </c>
+      <c r="D23" s="1">
+        <v>468</v>
+      </c>
+      <c r="E23" s="12">
+        <v>12</v>
+      </c>
+      <c r="F23" s="12">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>3</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>3</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
+      </c>
+      <c r="AG23">
+        <v>4</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23">
+        <v>3</v>
+      </c>
+      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>2</v>
+      </c>
+      <c r="AL23">
+        <v>4</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>4</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>3</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>2</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>4</v>
+      </c>
+      <c r="BB23">
+        <v>3</v>
+      </c>
       <c r="BC23"/>
       <c r="BD23"/>
       <c r="BE23"/>
@@ -3786,27 +4204,27 @@
       <c r="CA23"/>
       <c r="CB23"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
-        <v>405</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1">
+        <v>514</v>
+      </c>
+      <c r="D24" s="1">
         <v>495</v>
       </c>
-      <c r="D24" s="7">
-        <v>465</v>
-      </c>
       <c r="E24" s="12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24" s="12">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -3818,19 +4236,19 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>2</v>
@@ -3839,31 +4257,31 @@
         <v>4</v>
       </c>
       <c r="R24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>4</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -3872,83 +4290,71 @@
         <v>2</v>
       </c>
       <c r="AC24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24">
         <v>4</v>
       </c>
       <c r="AF24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24">
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>4</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV24">
-        <v>3</v>
-      </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>4</v>
-      </c>
-      <c r="AY24">
-        <v>1</v>
-      </c>
-      <c r="AZ24">
-        <v>1</v>
-      </c>
-      <c r="BA24">
-        <v>4</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
       <c r="BC24"/>
       <c r="BD24"/>
       <c r="BE24"/>
@@ -3976,42 +4382,42 @@
       <c r="CA24"/>
       <c r="CB24"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
-        <v>406</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>495</v>
-      </c>
-      <c r="D25" s="7">
-        <v>465</v>
+        <v>514</v>
+      </c>
+      <c r="D25" s="1">
+        <v>478</v>
       </c>
       <c r="E25" s="12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F25" s="12">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>3</v>
@@ -4020,13 +4426,13 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>4</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -4035,104 +4441,170 @@
         <v>2</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>4</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25">
         <v>2</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM25">
         <v>2</v>
       </c>
       <c r="AN25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO25">
         <v>1</v>
       </c>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="BA25"/>
-      <c r="BB25"/>
-      <c r="BC25"/>
-      <c r="BD25"/>
-      <c r="BE25"/>
-      <c r="BF25"/>
-      <c r="BG25"/>
-      <c r="BH25"/>
-      <c r="BI25"/>
-      <c r="BJ25"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
-      <c r="BM25"/>
-      <c r="BN25"/>
-      <c r="BO25"/>
-      <c r="BP25"/>
-      <c r="BQ25"/>
-      <c r="BR25"/>
-      <c r="BS25"/>
-      <c r="BT25"/>
-      <c r="BU25"/>
-      <c r="BV25"/>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>4</v>
+      </c>
+      <c r="AR25">
+        <v>2</v>
+      </c>
+      <c r="AS25">
+        <v>4</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>2</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>3</v>
+      </c>
+      <c r="AZ25">
+        <v>2</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>2</v>
+      </c>
+      <c r="BD25">
+        <v>4</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>3</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>3</v>
+      </c>
+      <c r="BI25">
+        <v>2</v>
+      </c>
+      <c r="BJ25">
+        <v>4</v>
+      </c>
+      <c r="BK25">
+        <v>2</v>
+      </c>
+      <c r="BL25">
+        <v>4</v>
+      </c>
+      <c r="BM25">
+        <v>2</v>
+      </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
+      <c r="BO25">
+        <v>4</v>
+      </c>
+      <c r="BP25">
+        <v>3</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25">
+        <v>4</v>
+      </c>
+      <c r="BS25">
+        <v>3</v>
+      </c>
+      <c r="BT25">
+        <v>2</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25">
+        <v>4</v>
+      </c>
       <c r="BW25"/>
       <c r="BX25"/>
       <c r="BY25"/>
@@ -4140,122 +4612,166 @@
       <c r="CA25"/>
       <c r="CB25"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
-        <v>407</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>495</v>
-      </c>
-      <c r="D26" s="7">
-        <v>465</v>
+        <v>448</v>
+      </c>
+      <c r="D26" s="1">
+        <v>435</v>
       </c>
       <c r="E26" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" s="12">
         <v>15</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26">
         <v>2</v>
       </c>
       <c r="R26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB26">
         <v>2</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE26">
-        <v>3</v>
-      </c>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>2</v>
+      </c>
+      <c r="AG26">
+        <v>4</v>
+      </c>
+      <c r="AH26">
+        <v>2</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+      <c r="AJ26">
+        <v>3</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <v>4</v>
+      </c>
+      <c r="AN26">
+        <v>2</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>3</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>3</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>4</v>
+      </c>
+      <c r="AZ26">
+        <v>2</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
       <c r="BB26"/>
       <c r="BC26"/>
       <c r="BD26"/>
@@ -4284,144 +4800,154 @@
       <c r="CA26"/>
       <c r="CB26"/>
     </row>
-    <row r="27" spans="1:80">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1">
-        <v>495</v>
-      </c>
-      <c r="D27" s="7">
-        <v>465</v>
+        <v>481</v>
+      </c>
+      <c r="D27" s="1">
+        <v>435</v>
       </c>
       <c r="E27" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" s="12">
         <v>15</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA27">
         <v>3</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI27">
         <v>4</v>
       </c>
       <c r="AJ27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM27">
         <v>4</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR27">
-        <v>1</v>
-      </c>
-      <c r="AS27"/>
-      <c r="AT27"/>
-      <c r="AU27"/>
-      <c r="AV27"/>
-      <c r="AW27"/>
+        <v>4</v>
+      </c>
+      <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27">
+        <v>3</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>4</v>
+      </c>
       <c r="AX27"/>
       <c r="AY27"/>
       <c r="AZ27"/>
@@ -4454,68 +4980,166 @@
       <c r="CA27"/>
       <c r="CB27"/>
     </row>
-    <row r="28" spans="1:80">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
-        <v>409</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
-        <v>495</v>
-      </c>
-      <c r="D28" s="7">
-        <v>465</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-      <c r="AQ28"/>
-      <c r="AR28"/>
-      <c r="AS28"/>
-      <c r="AT28"/>
-      <c r="AU28"/>
-      <c r="AV28"/>
-      <c r="AW28"/>
-      <c r="AX28"/>
-      <c r="AY28"/>
-      <c r="AZ28"/>
-      <c r="BA28"/>
+        <v>442</v>
+      </c>
+      <c r="D28" s="1">
+        <v>427</v>
+      </c>
+      <c r="E28" s="12">
+        <v>8</v>
+      </c>
+      <c r="F28" s="12">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>2</v>
+      </c>
+      <c r="T28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>2</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>2</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28">
+        <v>4</v>
+      </c>
+      <c r="AJ28">
+        <v>3</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>2</v>
+      </c>
+      <c r="AM28">
+        <v>4</v>
+      </c>
+      <c r="AN28">
+        <v>2</v>
+      </c>
+      <c r="AO28">
+        <v>4</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>4</v>
+      </c>
+      <c r="AS28">
+        <v>3</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>3</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28">
+        <v>2</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
       <c r="BB28"/>
       <c r="BC28"/>
       <c r="BD28"/>
@@ -4544,169 +5168,69 @@
       <c r="CA28"/>
       <c r="CB28"/>
     </row>
-    <row r="29" spans="1:80">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
-        <v>410</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
-        <v>495</v>
-      </c>
-      <c r="D29" s="7">
-        <v>465</v>
-      </c>
-      <c r="E29" s="12">
-        <v>10</v>
-      </c>
-      <c r="F29" s="12">
-        <v>15</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>4</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
-      <c r="V29">
-        <v>4</v>
-      </c>
-      <c r="W29">
-        <v>3</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>4</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AA29">
-        <v>4</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AC29">
-        <v>3</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>4</v>
-      </c>
-      <c r="AF29">
-        <v>2</v>
-      </c>
-      <c r="AG29">
-        <v>4</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-      <c r="AI29">
-        <v>3</v>
-      </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
-      <c r="AK29">
-        <v>2</v>
-      </c>
-      <c r="AL29">
-        <v>4</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>4</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>3</v>
-      </c>
-      <c r="AQ29">
-        <v>4</v>
-      </c>
-      <c r="AR29">
-        <v>3</v>
-      </c>
-      <c r="AS29">
-        <v>1</v>
-      </c>
-      <c r="AT29">
-        <v>3</v>
-      </c>
-      <c r="AU29">
-        <v>1</v>
-      </c>
-      <c r="AV29">
-        <v>4</v>
-      </c>
-      <c r="AW29">
-        <v>2</v>
-      </c>
-      <c r="AX29">
-        <v>4</v>
-      </c>
-      <c r="AY29">
-        <v>2</v>
-      </c>
-      <c r="AZ29">
-        <v>1</v>
-      </c>
-      <c r="BA29">
-        <v>4</v>
-      </c>
-      <c r="BB29">
-        <v>3</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="D29" s="1">
+        <v>419</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
       <c r="BC29"/>
       <c r="BD29"/>
       <c r="BE29"/>
@@ -4734,151 +5258,63 @@
       <c r="CA29"/>
       <c r="CB29"/>
     </row>
-    <row r="30" spans="1:80">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>495</v>
-      </c>
-      <c r="D30" s="7">
-        <v>465</v>
-      </c>
-      <c r="E30" s="12">
-        <v>9</v>
-      </c>
-      <c r="F30" s="12">
-        <v>15</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>4</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>4</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>2</v>
-      </c>
-      <c r="Y30">
-        <v>1</v>
-      </c>
-      <c r="Z30">
-        <v>4</v>
-      </c>
-      <c r="AA30">
-        <v>1</v>
-      </c>
-      <c r="AB30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>4</v>
-      </c>
-      <c r="AD30">
-        <v>3</v>
-      </c>
-      <c r="AE30">
-        <v>4</v>
-      </c>
-      <c r="AF30">
-        <v>4</v>
-      </c>
-      <c r="AG30">
-        <v>2</v>
-      </c>
-      <c r="AH30">
-        <v>1</v>
-      </c>
-      <c r="AI30">
-        <v>2</v>
-      </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
-      <c r="AK30">
-        <v>3</v>
-      </c>
-      <c r="AL30">
-        <v>2</v>
-      </c>
-      <c r="AM30">
-        <v>4</v>
-      </c>
-      <c r="AN30">
-        <v>2</v>
-      </c>
-      <c r="AO30">
-        <v>3</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30">
-        <v>2</v>
-      </c>
-      <c r="AR30">
-        <v>4</v>
-      </c>
-      <c r="AS30">
-        <v>1</v>
-      </c>
-      <c r="AT30">
-        <v>3</v>
-      </c>
-      <c r="AU30">
-        <v>4</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="D30" s="1">
+        <v>435</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
       <c r="AW30"/>
       <c r="AX30"/>
       <c r="AY30"/>
@@ -4912,18 +5348,18 @@
       <c r="CA30"/>
       <c r="CB30"/>
     </row>
-    <row r="31" spans="1:80">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
-        <v>412</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>495</v>
-      </c>
-      <c r="D31" s="7">
-        <v>465</v>
+        <v>528</v>
+      </c>
+      <c r="D31" s="1">
+        <v>486</v>
       </c>
       <c r="E31" s="12">
         <v>10</v>
@@ -4938,49 +5374,49 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q31">
         <v>2</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>1</v>
@@ -4989,25 +5425,25 @@
         <v>3</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG31">
         <v>2</v>
@@ -5016,61 +5452,61 @@
         <v>3</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AM31">
         <v>2</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AR31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT31">
         <v>1</v>
       </c>
       <c r="AU31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ31">
         <v>2</v>
       </c>
       <c r="BA31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB31">
         <v>4</v>
@@ -5082,7 +5518,7 @@
         <v>4</v>
       </c>
       <c r="BE31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF31">
         <v>3</v>
@@ -5091,50 +5527,22 @@
         <v>1</v>
       </c>
       <c r="BH31">
-        <v>3</v>
-      </c>
-      <c r="BI31">
-        <v>2</v>
-      </c>
-      <c r="BJ31">
-        <v>4</v>
-      </c>
-      <c r="BK31">
-        <v>2</v>
-      </c>
-      <c r="BL31">
-        <v>4</v>
-      </c>
-      <c r="BM31">
-        <v>2</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>4</v>
-      </c>
-      <c r="BP31">
-        <v>3</v>
-      </c>
-      <c r="BQ31">
-        <v>1</v>
-      </c>
-      <c r="BR31">
-        <v>4</v>
-      </c>
-      <c r="BS31">
-        <v>3</v>
-      </c>
-      <c r="BT31">
-        <v>2</v>
-      </c>
-      <c r="BU31">
-        <v>1</v>
-      </c>
-      <c r="BV31">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
       <c r="BW31"/>
       <c r="BX31"/>
       <c r="BY31"/>
@@ -5142,166 +5550,68 @@
       <c r="CA31"/>
       <c r="CB31"/>
     </row>
-    <row r="32" spans="1:80">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
-        <v>413</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>495</v>
-      </c>
-      <c r="D32" s="7">
-        <v>465</v>
-      </c>
-      <c r="E32" s="12">
-        <v>8</v>
-      </c>
-      <c r="F32" s="12">
-        <v>15</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>4</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-      <c r="R32">
-        <v>4</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>4</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>2</v>
-      </c>
-      <c r="Y32">
-        <v>4</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>4</v>
-      </c>
-      <c r="AB32">
-        <v>2</v>
-      </c>
-      <c r="AC32">
-        <v>3</v>
-      </c>
-      <c r="AD32">
-        <v>4</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
-      <c r="AG32">
-        <v>4</v>
-      </c>
-      <c r="AH32">
-        <v>2</v>
-      </c>
-      <c r="AI32">
-        <v>3</v>
-      </c>
-      <c r="AJ32">
-        <v>3</v>
-      </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AL32">
-        <v>4</v>
-      </c>
-      <c r="AM32">
-        <v>4</v>
-      </c>
-      <c r="AN32">
-        <v>2</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>3</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-      <c r="AS32">
-        <v>3</v>
-      </c>
-      <c r="AT32">
-        <v>1</v>
-      </c>
-      <c r="AU32">
-        <v>4</v>
-      </c>
-      <c r="AV32">
-        <v>2</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>3</v>
-      </c>
-      <c r="AY32">
-        <v>4</v>
-      </c>
-      <c r="AZ32">
-        <v>2</v>
-      </c>
-      <c r="BA32">
-        <v>1</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="D32" s="1">
+        <v>488</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
       <c r="BB32"/>
       <c r="BC32"/>
       <c r="BD32"/>
@@ -5330,154 +5640,50 @@
       <c r="CA32"/>
       <c r="CB32"/>
     </row>
-    <row r="33" spans="1:80">
-      <c r="A33" s="10">
-        <v>414</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1">
-        <v>495</v>
-      </c>
-      <c r="D33" s="7">
-        <v>465</v>
-      </c>
-      <c r="E33" s="12">
-        <v>10</v>
-      </c>
-      <c r="F33" s="12">
-        <v>15</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
-        <v>4</v>
-      </c>
-      <c r="L33">
-        <v>2</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="R33">
-        <v>4</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>4</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>3</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <v>2</v>
-      </c>
-      <c r="AA33">
-        <v>3</v>
-      </c>
-      <c r="AB33">
-        <v>4</v>
-      </c>
-      <c r="AC33">
-        <v>2</v>
-      </c>
-      <c r="AD33">
-        <v>3</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>3</v>
-      </c>
-      <c r="AG33">
-        <v>4</v>
-      </c>
-      <c r="AH33">
-        <v>2</v>
-      </c>
-      <c r="AI33">
-        <v>4</v>
-      </c>
-      <c r="AJ33">
-        <v>2</v>
-      </c>
-      <c r="AK33">
-        <v>4</v>
-      </c>
-      <c r="AL33">
-        <v>2</v>
-      </c>
-      <c r="AM33">
-        <v>4</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>4</v>
-      </c>
-      <c r="AP33">
-        <v>1</v>
-      </c>
-      <c r="AQ33">
-        <v>3</v>
-      </c>
-      <c r="AR33">
-        <v>4</v>
-      </c>
-      <c r="AS33">
-        <v>2</v>
-      </c>
-      <c r="AT33">
-        <v>3</v>
-      </c>
-      <c r="AU33">
-        <v>1</v>
-      </c>
-      <c r="AV33">
-        <v>2</v>
-      </c>
-      <c r="AW33">
-        <v>4</v>
-      </c>
+    <row r="33" spans="7:80" x14ac:dyDescent="0.2">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
       <c r="AX33"/>
       <c r="AY33"/>
       <c r="AZ33"/>
@@ -5510,750 +5716,9 @@
       <c r="CA33"/>
       <c r="CB33"/>
     </row>
-    <row r="34" spans="1:80">
-      <c r="A34" s="10">
-        <v>415</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1">
-        <v>495</v>
-      </c>
-      <c r="D34" s="7">
-        <v>465</v>
-      </c>
-      <c r="E34" s="12">
-        <v>7</v>
-      </c>
-      <c r="F34" s="12">
-        <v>15</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>2</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>3</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
-      </c>
-      <c r="P34">
-        <v>3</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="S34">
-        <v>2</v>
-      </c>
-      <c r="T34">
-        <v>3</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>4</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>3</v>
-      </c>
-      <c r="Y34">
-        <v>4</v>
-      </c>
-      <c r="Z34">
-        <v>3</v>
-      </c>
-      <c r="AA34">
-        <v>1</v>
-      </c>
-      <c r="AB34">
-        <v>2</v>
-      </c>
-      <c r="AC34">
-        <v>1</v>
-      </c>
-      <c r="AD34">
-        <v>2</v>
-      </c>
-      <c r="AE34">
-        <v>4</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>3</v>
-      </c>
-      <c r="AH34">
-        <v>2</v>
-      </c>
-      <c r="AI34">
-        <v>4</v>
-      </c>
-      <c r="AJ34">
-        <v>3</v>
-      </c>
-      <c r="AK34">
-        <v>1</v>
-      </c>
-      <c r="AL34">
-        <v>2</v>
-      </c>
-      <c r="AM34">
-        <v>4</v>
-      </c>
-      <c r="AN34">
-        <v>2</v>
-      </c>
-      <c r="AO34">
-        <v>4</v>
-      </c>
-      <c r="AP34">
-        <v>3</v>
-      </c>
-      <c r="AQ34">
-        <v>2</v>
-      </c>
-      <c r="AR34">
-        <v>4</v>
-      </c>
-      <c r="AS34">
-        <v>3</v>
-      </c>
-      <c r="AT34">
-        <v>1</v>
-      </c>
-      <c r="AU34">
-        <v>3</v>
-      </c>
-      <c r="AV34">
-        <v>2</v>
-      </c>
-      <c r="AW34">
-        <v>4</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <v>1</v>
-      </c>
-      <c r="AZ34">
-        <v>2</v>
-      </c>
-      <c r="BA34">
-        <v>4</v>
-      </c>
-      <c r="BB34"/>
-      <c r="BC34"/>
-      <c r="BD34"/>
-      <c r="BE34"/>
-      <c r="BF34"/>
-      <c r="BG34"/>
-      <c r="BH34"/>
-      <c r="BI34"/>
-      <c r="BJ34"/>
-      <c r="BK34"/>
-      <c r="BL34"/>
-      <c r="BM34"/>
-      <c r="BN34"/>
-      <c r="BO34"/>
-      <c r="BP34"/>
-      <c r="BQ34"/>
-      <c r="BR34"/>
-      <c r="BS34"/>
-      <c r="BT34"/>
-      <c r="BU34"/>
-      <c r="BV34"/>
-      <c r="BW34"/>
-      <c r="BX34"/>
-      <c r="BY34"/>
-      <c r="BZ34"/>
-      <c r="CA34"/>
-      <c r="CB34"/>
-    </row>
-    <row r="35" spans="1:80">
-      <c r="A35" s="10">
-        <v>416</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1">
-        <v>495</v>
-      </c>
-      <c r="D35" s="7">
-        <v>465</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-      <c r="AR35"/>
-      <c r="AS35"/>
-      <c r="AT35"/>
-      <c r="AU35"/>
-      <c r="AV35"/>
-      <c r="AW35"/>
-      <c r="AX35"/>
-      <c r="AY35"/>
-      <c r="AZ35"/>
-      <c r="BA35"/>
-      <c r="BB35"/>
-      <c r="BC35"/>
-      <c r="BD35"/>
-      <c r="BE35"/>
-      <c r="BF35"/>
-      <c r="BG35"/>
-      <c r="BH35"/>
-      <c r="BI35"/>
-      <c r="BJ35"/>
-      <c r="BK35"/>
-      <c r="BL35"/>
-      <c r="BM35"/>
-      <c r="BN35"/>
-      <c r="BO35"/>
-      <c r="BP35"/>
-      <c r="BQ35"/>
-      <c r="BR35"/>
-      <c r="BS35"/>
-      <c r="BT35"/>
-      <c r="BU35"/>
-      <c r="BV35"/>
-      <c r="BW35"/>
-      <c r="BX35"/>
-      <c r="BY35"/>
-      <c r="BZ35"/>
-      <c r="CA35"/>
-      <c r="CB35"/>
-    </row>
-    <row r="36" spans="1:80">
-      <c r="A36" s="10">
-        <v>417</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>495</v>
-      </c>
-      <c r="D36" s="7">
-        <v>465</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-      <c r="AR36"/>
-      <c r="AS36"/>
-      <c r="AT36"/>
-      <c r="AU36"/>
-      <c r="AV36"/>
-      <c r="AW36"/>
-      <c r="AX36"/>
-      <c r="AY36"/>
-      <c r="AZ36"/>
-      <c r="BA36"/>
-      <c r="BB36"/>
-      <c r="BC36"/>
-      <c r="BD36"/>
-      <c r="BE36"/>
-      <c r="BF36"/>
-      <c r="BG36"/>
-      <c r="BH36"/>
-      <c r="BI36"/>
-      <c r="BJ36"/>
-      <c r="BK36"/>
-      <c r="BL36"/>
-      <c r="BM36"/>
-      <c r="BN36"/>
-      <c r="BO36"/>
-      <c r="BP36"/>
-      <c r="BQ36"/>
-      <c r="BR36"/>
-      <c r="BS36"/>
-      <c r="BT36"/>
-      <c r="BU36"/>
-      <c r="BV36"/>
-      <c r="BW36"/>
-      <c r="BX36"/>
-      <c r="BY36"/>
-      <c r="BZ36"/>
-      <c r="CA36"/>
-      <c r="CB36"/>
-    </row>
-    <row r="37" spans="1:80">
-      <c r="A37" s="10">
-        <v>418</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>495</v>
-      </c>
-      <c r="D37" s="7">
-        <v>465</v>
-      </c>
-      <c r="E37" s="12">
-        <v>5</v>
-      </c>
-      <c r="F37" s="12">
-        <v>15</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>3</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-      <c r="R37">
-        <v>3</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
-      </c>
-      <c r="U37">
-        <v>4</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>2</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>3</v>
-      </c>
-      <c r="Z37">
-        <v>4</v>
-      </c>
-      <c r="AA37">
-        <v>1</v>
-      </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
-      <c r="AC37">
-        <v>3</v>
-      </c>
-      <c r="AD37">
-        <v>1</v>
-      </c>
-      <c r="AE37">
-        <v>3</v>
-      </c>
-      <c r="AF37">
-        <v>4</v>
-      </c>
-      <c r="AG37">
-        <v>2</v>
-      </c>
-      <c r="AH37">
-        <v>3</v>
-      </c>
-      <c r="AI37">
-        <v>4</v>
-      </c>
-      <c r="AJ37">
-        <v>2</v>
-      </c>
-      <c r="AK37">
-        <v>4</v>
-      </c>
-      <c r="AL37">
-        <v>1</v>
-      </c>
-      <c r="AM37">
-        <v>2</v>
-      </c>
-      <c r="AN37">
-        <v>4</v>
-      </c>
-      <c r="AO37">
-        <v>2</v>
-      </c>
-      <c r="AP37">
-        <v>4</v>
-      </c>
-      <c r="AQ37">
-        <v>2</v>
-      </c>
-      <c r="AR37">
-        <v>4</v>
-      </c>
-      <c r="AS37">
-        <v>3</v>
-      </c>
-      <c r="AT37">
-        <v>1</v>
-      </c>
-      <c r="AU37">
-        <v>4</v>
-      </c>
-      <c r="AV37">
-        <v>2</v>
-      </c>
-      <c r="AW37">
-        <v>4</v>
-      </c>
-      <c r="AX37">
-        <v>2</v>
-      </c>
-      <c r="AY37">
-        <v>1</v>
-      </c>
-      <c r="AZ37">
-        <v>2</v>
-      </c>
-      <c r="BA37">
-        <v>3</v>
-      </c>
-      <c r="BB37">
-        <v>4</v>
-      </c>
-      <c r="BC37">
-        <v>2</v>
-      </c>
-      <c r="BD37">
-        <v>4</v>
-      </c>
-      <c r="BE37">
-        <v>2</v>
-      </c>
-      <c r="BF37">
-        <v>3</v>
-      </c>
-      <c r="BG37">
-        <v>1</v>
-      </c>
-      <c r="BH37">
-        <v>4</v>
-      </c>
-      <c r="BI37"/>
-      <c r="BJ37"/>
-      <c r="BK37"/>
-      <c r="BL37"/>
-      <c r="BM37"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
-      <c r="BP37"/>
-      <c r="BQ37"/>
-      <c r="BR37"/>
-      <c r="BS37"/>
-      <c r="BT37"/>
-      <c r="BU37"/>
-      <c r="BV37"/>
-      <c r="BW37"/>
-      <c r="BX37"/>
-      <c r="BY37"/>
-      <c r="BZ37"/>
-      <c r="CA37"/>
-      <c r="CB37"/>
-    </row>
-    <row r="38" spans="1:80">
-      <c r="A38" s="10">
-        <v>437</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
-        <v>495</v>
-      </c>
-      <c r="D38" s="7">
-        <v>465</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
-      <c r="AK38"/>
-      <c r="AL38"/>
-      <c r="AM38"/>
-      <c r="AN38"/>
-      <c r="AO38"/>
-      <c r="AP38"/>
-      <c r="AQ38"/>
-      <c r="AR38"/>
-      <c r="AS38"/>
-      <c r="AT38"/>
-      <c r="AU38"/>
-      <c r="AV38"/>
-      <c r="AW38"/>
-      <c r="AX38"/>
-      <c r="AY38"/>
-      <c r="AZ38"/>
-      <c r="BA38"/>
-      <c r="BB38"/>
-      <c r="BC38"/>
-      <c r="BD38"/>
-      <c r="BE38"/>
-      <c r="BF38"/>
-      <c r="BG38"/>
-      <c r="BH38"/>
-      <c r="BI38"/>
-      <c r="BJ38"/>
-      <c r="BK38"/>
-      <c r="BL38"/>
-      <c r="BM38"/>
-      <c r="BN38"/>
-      <c r="BO38"/>
-      <c r="BP38"/>
-      <c r="BQ38"/>
-      <c r="BR38"/>
-      <c r="BS38"/>
-      <c r="BT38"/>
-      <c r="BU38"/>
-      <c r="BV38"/>
-      <c r="BW38"/>
-      <c r="BX38"/>
-      <c r="BY38"/>
-      <c r="BZ38"/>
-      <c r="CA38"/>
-      <c r="CB38"/>
-    </row>
-    <row r="39" spans="1:80">
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-      <c r="AN39"/>
-      <c r="AO39"/>
-      <c r="AP39"/>
-      <c r="AQ39"/>
-      <c r="AR39"/>
-      <c r="AS39"/>
-      <c r="AT39"/>
-      <c r="AU39"/>
-      <c r="AV39"/>
-      <c r="AW39"/>
-      <c r="AX39"/>
-      <c r="AY39"/>
-      <c r="AZ39"/>
-      <c r="BA39"/>
-      <c r="BB39"/>
-      <c r="BC39"/>
-      <c r="BD39"/>
-      <c r="BE39"/>
-      <c r="BF39"/>
-      <c r="BG39"/>
-      <c r="BH39"/>
-      <c r="BI39"/>
-      <c r="BJ39"/>
-      <c r="BK39"/>
-      <c r="BL39"/>
-      <c r="BM39"/>
-      <c r="BN39"/>
-      <c r="BO39"/>
-      <c r="BP39"/>
-      <c r="BQ39"/>
-      <c r="BR39"/>
-      <c r="BS39"/>
-      <c r="BT39"/>
-      <c r="BU39"/>
-      <c r="BV39"/>
-      <c r="BW39"/>
-      <c r="BX39"/>
-      <c r="BY39"/>
-      <c r="BZ39"/>
-      <c r="CA39"/>
-      <c r="CB39"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>